--- a/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
+++ b/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
   <si>
     <t>土地坐落</t>
   </si>
@@ -201,7 +201,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中華電信</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1285,13 +1297,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1310,13 +1322,22 @@
       <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1332,6 +1353,15 @@
       </c>
       <c r="G2" s="2">
         <v>240000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2">
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -1352,19 +1382,19 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1372,13 +1402,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>1278633</v>
@@ -1387,7 +1417,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1395,13 +1425,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
@@ -1410,7 +1440,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1418,22 +1448,22 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1451,22 +1481,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1477,19 +1507,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1500,19 +1530,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
         <v>11800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
+++ b/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
   <si>
     <t>土地坐落</t>
   </si>
@@ -201,6 +201,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -211,6 +214,9 @@
   </si>
   <si>
     <t>中華電信</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-17</t>
@@ -1297,13 +1303,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1331,13 +1337,16 @@
       <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1355,12 +1364,15 @@
         <v>240000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2">
+        <v>66</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
         <v>892</v>
       </c>
     </row>
@@ -1382,19 +1394,19 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1402,13 +1414,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>1278633</v>
@@ -1417,7 +1429,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1425,13 +1437,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
@@ -1440,7 +1452,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1448,22 +1460,22 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1481,22 +1493,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1507,19 +1519,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1530,19 +1542,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>11800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
+++ b/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
   <si>
     <t>土地坐落</t>
   </si>
@@ -204,6 +204,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -213,13 +216,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中華電信</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmpf9381</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1303,13 +1318,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1340,13 +1355,22 @@
       <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1364,16 +1388,25 @@
         <v>240000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2">
+        <v>70</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
         <v>892</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1394,19 +1427,19 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1414,13 +1447,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>1278633</v>
@@ -1429,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1437,13 +1470,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
@@ -1452,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1460,22 +1493,22 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1493,22 +1526,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1519,19 +1552,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1542,19 +1575,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>11800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
+++ b/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
@@ -19,9 +19,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="97">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新竹市溪橋段05690000地號</t>
+  </si>
+  <si>
+    <t>新竹市武陵段11410045地號</t>
+  </si>
+  <si>
+    <t>新竹市武陵段11410101地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01570000地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01590000地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01620000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣平鎮市廣仁段01650000地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01660000地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01.670000地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01580000地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01690000地號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>88分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>呂學樟</t>
+  </si>
+  <si>
+    <t>程桂琴</t>
+  </si>
+  <si>
+    <t>77年06月20日</t>
+  </si>
+  <si>
+    <t>93年04月13曰</t>
+  </si>
+  <si>
+    <t>99年02月08日</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmpf9381</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,88 +168,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新竹市溪橋段0569-0000地號</t>
-  </si>
-  <si>
-    <t>新竹市武陵段1141-0045地號</t>
-  </si>
-  <si>
-    <t>新竹市武陵段1141-0101地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段0157-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段0159-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段0162-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣平鎮市廣仁段0165-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段0166-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段01.67-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段0158-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段0169-0000 地號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>88分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>呂學樟</t>
-  </si>
-  <si>
-    <t>程桂琴</t>
-  </si>
-  <si>
-    <t>77年06月 20日</t>
-  </si>
-  <si>
-    <t>93年04月 13曰</t>
-  </si>
-  <si>
-    <t>99年02月 08日</t>
-  </si>
-  <si>
-    <t>99年,02月 08日</t>
-  </si>
-  <si>
-    <t>100/3</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新竹市武陵段06099-000建號</t>
-  </si>
-  <si>
-    <t>新竹市武陵段06113-000建號</t>
+    <t>新竹市武陵段06099000建號</t>
+  </si>
+  <si>
+    <t>新竹市武陵段06113000建號</t>
   </si>
   <si>
     <t>呂學掉</t>
@@ -132,7 +180,7 @@
     <t>93年04月</t>
   </si>
   <si>
-    <t>93年04月 13日</t>
+    <t>93年04月13日</t>
   </si>
   <si>
     <t>(超過五牟）</t>
@@ -162,7 +210,7 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行北新竹 分行</t>
+    <t>合作金庫商業銀行北新竹分行</t>
   </si>
   <si>
     <t>第一商業銀行新竹分行</t>
@@ -183,12 +231,6 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -201,42 +243,12 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中華電信</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-17</t>
-  </si>
-  <si>
-    <t>tmpf9381</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -264,10 +276,10 @@
     <t>合作金庫北新竹分行</t>
   </si>
   <si>
-    <t>100年05月 30日</t>
-  </si>
-  <si>
-    <t>購買房屋， 土地</t>
+    <t>100年05月30日</t>
+  </si>
+  <si>
+    <t>購買房屋土地</t>
   </si>
   <si>
     <t>購買土地</t>
@@ -291,10 +303,10 @@
     <t>新竹市中華路一段43號</t>
   </si>
   <si>
-    <t>13,, 800,000</t>
-  </si>
-  <si>
-    <t>75年03月 28日</t>
+    <t>13800000</t>
+  </si>
+  <si>
+    <t>75年03月28日</t>
   </si>
   <si>
     <t>成立公司</t>
@@ -656,13 +668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,317 +696,590 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1670.14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>892</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1670.14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>892</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>191</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>892</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>1267</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>892</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>2524.84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2">
         <v>75500290</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>892</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>3.33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2">
         <v>15651</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>892</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>106.86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2">
         <v>1688388</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>892</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>2021.11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2">
         <v>31933538</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>892</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>25.82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2">
         <v>407956</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>892</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>8.58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2">
         <v>40326</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2">
+        <v>892</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>169.83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2">
         <v>9680000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="2">
+        <v>892</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>80.61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2">
         <v>9680000</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="2">
+        <v>892</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1012,25 +1297,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1038,25 +1323,25 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>456.4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1064,25 +1349,25 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>260.28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1100,22 +1385,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1123,16 +1408,16 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1144,16 +1429,16 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1165,16 +1450,16 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1186,16 +1471,16 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1207,16 +1492,16 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1228,16 +1513,16 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1249,16 +1534,16 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2">
         <v>40457.79</v>
@@ -1272,16 +1557,16 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
         <v>20017.2</v>
@@ -1295,16 +1580,16 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1326,43 +1611,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1370,10 +1655,10 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>24000</v>
@@ -1382,28 +1667,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>240000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>892</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="N2" s="2">
         <v>71</v>
@@ -1424,22 +1709,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1447,22 +1732,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>1278633</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1470,22 +1755,22 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1493,22 +1778,22 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1526,22 +1811,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1549,22 +1834,22 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1572,22 +1857,22 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>11800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
+++ b/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -63,6 +63,12 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>新竹市溪橋段05690000地號</t>
   </si>
   <si>
@@ -105,12 +111,12 @@
     <t>全部</t>
   </si>
   <si>
+    <t>程桂琴</t>
+  </si>
+  <si>
     <t>呂學樟</t>
   </si>
   <si>
-    <t>程桂琴</t>
-  </si>
-  <si>
     <t>77年06月20日</t>
   </si>
   <si>
@@ -123,12 +129,12 @@
     <t>1003</t>
   </si>
   <si>
+    <t>貝賣</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>貝賣</t>
-  </si>
-  <si>
     <t>貝賈</t>
   </si>
   <si>
@@ -147,66 +153,33 @@
     <t>tmpf9381</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>新竹市武陵段06099000建號</t>
   </si>
   <si>
+    <t>呂學掉</t>
+  </si>
+  <si>
+    <t>93年04月</t>
+  </si>
+  <si>
+    <t>(超過五牟）</t>
+  </si>
+  <si>
     <t>新竹市武陵段06113000建號</t>
   </si>
   <si>
-    <t>呂學掉</t>
-  </si>
-  <si>
-    <t>93年04月</t>
-  </si>
-  <si>
     <t>93年04月13日</t>
   </si>
   <si>
-    <t>(超過五牟）</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行新竹分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -216,15 +189,9 @@
     <t>第一商業銀行新竹分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -240,61 +207,25 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>中華電信</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋抵押借款</t>
   </si>
   <si>
+    <t>臺灣銀行dt大分行</t>
+  </si>
+  <si>
+    <t>購買房屋土地</t>
+  </si>
+  <si>
     <t>土地抵押借款</t>
   </si>
   <si>
-    <t>臺灣銀行dt大分行</t>
-  </si>
-  <si>
     <t>合作金庫北新竹分行</t>
   </si>
   <si>
     <t>100年05月30日</t>
   </si>
   <si>
-    <t>購買房屋土地</t>
-  </si>
-  <si>
     <t>購買土地</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
   <si>
     <t>聯立汽車有限公司</t>
@@ -668,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,569 +648,594 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>1670.14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>892</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>835.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>191</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1670.14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>892</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1267</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2">
-        <v>191</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>892</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0113636363636364</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>14.3977272727273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2524.84</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2">
+        <v>75500290</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1267</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
         <v>892</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1262.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2">
+        <v>15651</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2524.84</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2">
-        <v>75500290</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
         <v>892</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>106.86</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1688388</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2">
-        <v>15651</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2">
         <v>892</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>53.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2021.11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2">
+        <v>31933538</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>106.86</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1688388</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2">
         <v>892</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1010.555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>25.82</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2">
+        <v>407956</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2021.11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2">
-        <v>31933538</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2">
         <v>892</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2">
+        <v>40326</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2">
-        <v>25.82</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2">
-        <v>407956</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M10" s="2">
         <v>892</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>169.83</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9680000</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8.58</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="2">
-        <v>40326</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2">
         <v>892</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>169.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>169.83</v>
+        <v>80.61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2">
         <v>9680000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2">
         <v>892</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
         <v>80.61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2">
-        <v>9680000</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="2">
-        <v>892</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="2">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1297,13 +1253,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C1" s="1">
+        <v>456.4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>45</v>
@@ -1312,62 +1268,36 @@
         <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2">
+        <v>260.28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2">
-        <v>456.4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2">
-        <v>260.28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1385,214 +1315,191 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>512488</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>512488</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1000000</v>
+        <v>461802</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>461802</v>
+        <v>506800</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>506800</v>
+        <v>7739009</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>7739009</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>40457.79</v>
+      </c>
       <c r="G7" s="2">
-        <v>3000000</v>
+        <v>1223443</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
-        <v>40457.79</v>
+        <v>20017.2</v>
       </c>
       <c r="G8" s="2">
-        <v>1223443</v>
+        <v>818703</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2">
-        <v>20017.2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>818703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>65</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
         <v>388734</v>
       </c>
     </row>
@@ -1603,13 +1510,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1617,16 +1524,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1648,50 +1555,6 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2">
-        <v>24000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="2">
-        <v>240000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2">
-        <v>892</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="2">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1700,108 +1563,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>104</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1278633</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>105</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2">
-        <v>60000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>106</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1811,68 +1572,124 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1278633</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
+      </c>
+      <c r="E2" s="2">
+        <v>60000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>112</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2">
         <v>11800000</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>96</v>
+      <c r="F2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
+++ b/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -111,12 +111,12 @@
     <t>全部</t>
   </si>
   <si>
+    <t>呂學樟</t>
+  </si>
+  <si>
     <t>程桂琴</t>
   </si>
   <si>
-    <t>呂學樟</t>
-  </si>
-  <si>
     <t>77年06月20日</t>
   </si>
   <si>
@@ -129,12 +129,12 @@
     <t>1003</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>貝賣</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>貝賈</t>
   </si>
   <si>
@@ -156,21 +156,21 @@
     <t>新竹市武陵段06099000建號</t>
   </si>
   <si>
+    <t>新竹市武陵段06113000建號</t>
+  </si>
+  <si>
     <t>呂學掉</t>
   </si>
   <si>
     <t>93年04月</t>
   </si>
   <si>
+    <t>93年04月13日</t>
+  </si>
+  <si>
     <t>(超過五牟）</t>
   </si>
   <si>
-    <t>新竹市武陵段06113000建號</t>
-  </si>
-  <si>
-    <t>93年04月13日</t>
-  </si>
-  <si>
     <t>臺灣銀行新竹分行</t>
   </si>
   <si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>中華電信</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>房屋抵押借款</t>
@@ -599,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +663,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -690,7 +696,7 @@
         <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>892</v>
@@ -699,7 +705,7 @@
         <v>43</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.5</v>
@@ -710,13 +716,13 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="2">
-        <v>191</v>
+        <v>1670.14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -725,7 +731,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>37</v>
@@ -743,7 +749,7 @@
         <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>892</v>
@@ -752,36 +758,36 @@
         <v>43</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.5</v>
       </c>
       <c r="Q3" s="2">
-        <v>95.5</v>
+        <v>835.07</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="2">
-        <v>1267</v>
+        <v>191</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>39</v>
@@ -796,7 +802,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>892</v>
@@ -805,39 +811,39 @@
         <v>43</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0113636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="2">
-        <v>14.3977272727273</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="2">
-        <v>2524.84</v>
+        <v>1267</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="2">
-        <v>75500290</v>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>40</v>
@@ -849,7 +855,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
         <v>892</v>
@@ -858,30 +864,30 @@
         <v>43</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.5</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="Q5" s="2">
-        <v>1262.42</v>
+        <v>14.3977272727273</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" s="2">
-        <v>3.33</v>
+        <v>2524.84</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>34</v>
@@ -890,7 +896,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="2">
-        <v>15651</v>
+        <v>75500290</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>40</v>
@@ -902,7 +908,7 @@
         <v>42</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2">
         <v>892</v>
@@ -911,39 +917,39 @@
         <v>43</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.5</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.665</v>
+        <v>1262.42</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="2">
-        <v>106.86</v>
+        <v>3.33</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2">
-        <v>1688388</v>
+        <v>15651</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>40</v>
@@ -955,7 +961,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2">
         <v>892</v>
@@ -964,39 +970,39 @@
         <v>43</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.5</v>
       </c>
       <c r="Q7" s="2">
-        <v>53.43</v>
+        <v>1.665</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="2">
-        <v>2021.11</v>
+        <v>106.86</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2">
-        <v>31933538</v>
+        <v>1688388</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>40</v>
@@ -1008,7 +1014,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
         <v>892</v>
@@ -1017,39 +1023,39 @@
         <v>43</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.5</v>
       </c>
       <c r="Q8" s="2">
-        <v>1010.555</v>
+        <v>53.43</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" s="2">
-        <v>25.82</v>
+        <v>2021.11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2">
-        <v>407956</v>
+        <v>31933538</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>40</v>
@@ -1061,7 +1067,7 @@
         <v>42</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2">
         <v>892</v>
@@ -1070,39 +1076,39 @@
         <v>43</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.5</v>
       </c>
       <c r="Q9" s="2">
-        <v>12.91</v>
+        <v>1010.555</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="2">
-        <v>8.58</v>
+        <v>25.82</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2">
-        <v>40326</v>
+        <v>407956</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>40</v>
@@ -1114,7 +1120,7 @@
         <v>42</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="2">
         <v>892</v>
@@ -1123,39 +1129,39 @@
         <v>43</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>0.5</v>
       </c>
       <c r="Q10" s="2">
-        <v>4.29</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" s="2">
-        <v>169.83</v>
+        <v>8.58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2">
-        <v>9680000</v>
+        <v>40326</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>40</v>
@@ -1167,7 +1173,7 @@
         <v>42</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11" s="2">
         <v>892</v>
@@ -1176,36 +1182,36 @@
         <v>43</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q11" s="2">
-        <v>169.83</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" s="2">
-        <v>80.61</v>
+        <v>169.83</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2">
         <v>9680000</v>
@@ -1220,7 +1226,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12" s="2">
         <v>892</v>
@@ -1229,12 +1235,65 @@
         <v>43</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
+        <v>169.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>80.61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9680000</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>892</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
         <v>80.61</v>
       </c>
     </row>
@@ -1245,59 +1304,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="2">
         <v>456.4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2">
-        <v>260.28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>892</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>228.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>260.28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>892</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0113636363636364</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2.95772727272727</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1490,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1333,52 +1499,52 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1000000</v>
+        <v>512488</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>461802</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>51</v>
@@ -1387,19 +1553,19 @@
         <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>506800</v>
+        <v>461802</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>51</v>
@@ -1412,56 +1578,54 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>7739009</v>
+        <v>506800</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>3000000</v>
+        <v>7739009</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2">
-        <v>40457.79</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>1223443</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -1470,36 +1634,59 @@
         <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>20017.2</v>
+        <v>40457.79</v>
       </c>
       <c r="G8" s="2">
-        <v>818703</v>
+        <v>1223443</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20017.2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>818703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <v>388734</v>
       </c>
     </row>
@@ -1510,13 +1697,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,6 +1742,50 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>24000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2">
+        <v>240000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>892</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1563,6 +1794,108 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1278633</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1278633</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2">
+        <v>60000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1572,124 +1905,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1278633</v>
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60000000</v>
+        <v>72</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
-        <v>5000000</v>
+        <v>11800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>112</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2">
-        <v>11800000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
+++ b/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>(超過五牟）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣銀行新竹分行</t>
@@ -1386,7 +1389,7 @@
         <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>41</v>
@@ -1439,7 +1442,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>41</v>
@@ -1481,13 +1484,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1502,13 +1505,13 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1523,13 +1526,13 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1544,13 +1547,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -1565,13 +1568,13 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -1586,13 +1589,13 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -1607,13 +1610,13 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
@@ -1628,13 +1631,13 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -1651,13 +1654,13 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
@@ -1674,13 +1677,13 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
@@ -1711,13 +1714,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1749,7 +1752,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1761,13 +1764,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>240000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -1803,13 +1806,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>1278633</v>
@@ -1818,7 +1821,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1826,13 +1829,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>1278633</v>
@@ -1841,7 +1844,7 @@
         <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1849,13 +1852,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
@@ -1864,7 +1867,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1872,22 +1875,22 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1908,19 +1911,19 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1931,19 +1934,19 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1954,19 +1957,19 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>11800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
+++ b/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -174,40 +174,49 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行新竹分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行北新竹分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行新竹分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行北新竹分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行新竹分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>歐元</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中華電信</t>
@@ -1476,13 +1485,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1493,204 +1502,400 @@
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>512488</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>512488</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>892</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>892</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>461802</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>892</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>506800</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>892</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>7739009</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>892</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>892</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>40457.79</v>
-      </c>
-      <c r="G8" s="2">
         <v>1223443</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>892</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="2">
-        <v>20017.2</v>
-      </c>
-      <c r="G9" s="2">
         <v>818703</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>892</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>388734</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <v>892</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1714,13 +1919,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1752,7 +1957,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1764,13 +1969,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>240000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -1806,13 +2011,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>1278633</v>
@@ -1821,7 +2026,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1829,13 +2034,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>1278633</v>
@@ -1844,7 +2049,7 @@
         <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1852,13 +2057,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
@@ -1867,7 +2072,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1875,22 +2080,22 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1911,19 +2116,19 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1934,19 +2139,19 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1957,19 +2162,19 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>11800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
+++ b/legislator/property/output/normal/呂學樟_2011-11-17_財產申報表_tmpf9381.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -225,40 +225,55 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋抵押借款</t>
   </si>
   <si>
+    <t>土地抵押借款</t>
+  </si>
+  <si>
     <t>臺灣銀行dt大分行</t>
   </si>
   <si>
+    <t>合作金庫北新竹分行</t>
+  </si>
+  <si>
+    <t>100年05月30日</t>
+  </si>
+  <si>
     <t>購買房屋土地</t>
   </si>
   <si>
-    <t>土地抵押借款</t>
-  </si>
-  <si>
-    <t>合作金庫北新竹分行</t>
-  </si>
-  <si>
-    <t>100年05月30日</t>
-  </si>
-  <si>
     <t>購買土地</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>聯立汽車有限公司</t>
   </si>
   <si>
     <t>新竹市中華路一段43號</t>
   </si>
   <si>
-    <t>13800000</t>
-  </si>
-  <si>
     <t>75年03月28日</t>
   </si>
   <si>
     <t>成立公司</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2003,44 +2018,65 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1278633</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>1278633</v>
@@ -2049,10 +2085,31 @@
         <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>892</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>105</v>
       </c>
@@ -2063,7 +2120,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
@@ -2072,10 +2129,31 @@
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>892</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>106</v>
       </c>
@@ -2086,16 +2164,37 @@
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2">
+        <v>892</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2105,33 +2204,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>111</v>
       </c>
@@ -2139,22 +2259,43 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="E2" s="2">
+        <v>13800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>892</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>112</v>
       </c>
@@ -2162,19 +2303,40 @@
         <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>11800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>892</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
